--- a/artfynd/A 747-2022.xlsx
+++ b/artfynd/A 747-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112234852</v>
+        <v>112234886</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>89503</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>607741</v>
+        <v>607750</v>
       </c>
       <c r="R2" t="n">
-        <v>7043939</v>
+        <v>7043935</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112234671</v>
+        <v>112234706</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>89503</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -795,25 +795,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>607748</v>
+        <v>607769</v>
       </c>
       <c r="R3" t="n">
-        <v>7043804</v>
+        <v>7043830</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112234449</v>
+        <v>112234671</v>
       </c>
       <c r="B4" t="n">
-        <v>78605</v>
+        <v>89557</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -898,25 +898,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>607781</v>
+        <v>607748</v>
       </c>
       <c r="R4" t="n">
-        <v>7043736</v>
+        <v>7043804</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112234593</v>
+        <v>112234449</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>78726</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1001,25 +1001,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>607729</v>
+        <v>607781</v>
       </c>
       <c r="R5" t="n">
-        <v>7043807</v>
+        <v>7043736</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112234856</v>
+        <v>112234315</v>
       </c>
       <c r="B6" t="n">
-        <v>89845</v>
+        <v>85836</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,25 +1104,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>510</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>607741</v>
+        <v>607865</v>
       </c>
       <c r="R6" t="n">
-        <v>7043939</v>
+        <v>7043733</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112234706</v>
+        <v>112234593</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>89539</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,25 +1207,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>607769</v>
+        <v>607729</v>
       </c>
       <c r="R7" t="n">
-        <v>7043830</v>
+        <v>7043807</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112234315</v>
+        <v>112234856</v>
       </c>
       <c r="B8" t="n">
-        <v>85715</v>
+        <v>89979</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1310,25 +1310,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>510</v>
+        <v>1209</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>607865</v>
+        <v>607741</v>
       </c>
       <c r="R8" t="n">
-        <v>7043733</v>
+        <v>7043939</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1404,7 +1404,7 @@
         <v>112234452</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112234886</v>
+        <v>112234488</v>
       </c>
       <c r="B10" t="n">
-        <v>89369</v>
+        <v>78725</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1520,21 +1520,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>6461</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>607750</v>
+        <v>607738</v>
       </c>
       <c r="R10" t="n">
-        <v>7043935</v>
+        <v>7043747</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112234945</v>
+        <v>112234852</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89820</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1623,40 +1623,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kälshöjden (Kälshöjden), Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>607671</v>
+        <v>607741</v>
       </c>
       <c r="R11" t="n">
-        <v>7043913</v>
+        <v>7043939</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1715,10 +1710,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112234488</v>
+        <v>112234945</v>
       </c>
       <c r="B12" t="n">
-        <v>78604</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1727,39 +1722,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6461</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kälshöjden (Kälshöjden), Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>607738</v>
+        <v>607671</v>
       </c>
       <c r="R12" t="n">
-        <v>7043747</v>
+        <v>7043913</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>

--- a/artfynd/A 747-2022.xlsx
+++ b/artfynd/A 747-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112234886</v>
+        <v>112234449</v>
       </c>
       <c r="B2" t="n">
-        <v>89503</v>
+        <v>78740</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>607750</v>
+        <v>607781</v>
       </c>
       <c r="R2" t="n">
-        <v>7043935</v>
+        <v>7043736</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112234706</v>
+        <v>112234945</v>
       </c>
       <c r="B3" t="n">
-        <v>89503</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -795,39 +795,44 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kälshöjden (Kälshöjden), Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>607769</v>
+        <v>607671</v>
       </c>
       <c r="R3" t="n">
-        <v>7043830</v>
+        <v>7043913</v>
       </c>
       <c r="S3" t="n">
         <v>20</v>
@@ -889,7 +894,7 @@
         <v>112234671</v>
       </c>
       <c r="B4" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -989,10 +994,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112234449</v>
+        <v>112234315</v>
       </c>
       <c r="B5" t="n">
-        <v>78726</v>
+        <v>85850</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1001,25 +1006,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>510</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1030,10 +1035,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>607781</v>
+        <v>607865</v>
       </c>
       <c r="R5" t="n">
-        <v>7043736</v>
+        <v>7043733</v>
       </c>
       <c r="S5" t="n">
         <v>20</v>
@@ -1092,10 +1097,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112234315</v>
+        <v>112234856</v>
       </c>
       <c r="B6" t="n">
-        <v>85836</v>
+        <v>89993</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,25 +1109,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>510</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1133,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>607865</v>
+        <v>607741</v>
       </c>
       <c r="R6" t="n">
-        <v>7043733</v>
+        <v>7043939</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1195,10 +1200,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112234593</v>
+        <v>112234488</v>
       </c>
       <c r="B7" t="n">
-        <v>89539</v>
+        <v>78739</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,25 +1212,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6461</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1236,10 +1241,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>607729</v>
+        <v>607738</v>
       </c>
       <c r="R7" t="n">
-        <v>7043807</v>
+        <v>7043747</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1298,10 +1303,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112234856</v>
+        <v>112234593</v>
       </c>
       <c r="B8" t="n">
-        <v>89979</v>
+        <v>89553</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1310,25 +1315,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1339,10 +1344,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>607741</v>
+        <v>607729</v>
       </c>
       <c r="R8" t="n">
-        <v>7043939</v>
+        <v>7043807</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1401,10 +1406,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112234452</v>
+        <v>112234886</v>
       </c>
       <c r="B9" t="n">
-        <v>78699</v>
+        <v>89517</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1413,25 +1418,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1442,10 +1447,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>607781</v>
+        <v>607750</v>
       </c>
       <c r="R9" t="n">
-        <v>7043736</v>
+        <v>7043935</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1504,10 +1509,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112234488</v>
+        <v>112234852</v>
       </c>
       <c r="B10" t="n">
-        <v>78725</v>
+        <v>89834</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1516,25 +1521,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6461</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1545,10 +1550,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>607738</v>
+        <v>607741</v>
       </c>
       <c r="R10" t="n">
-        <v>7043747</v>
+        <v>7043939</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1607,10 +1612,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112234852</v>
+        <v>112234452</v>
       </c>
       <c r="B11" t="n">
-        <v>89820</v>
+        <v>78713</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1623,21 +1628,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1648,10 +1653,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>607741</v>
+        <v>607781</v>
       </c>
       <c r="R11" t="n">
-        <v>7043939</v>
+        <v>7043736</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1710,10 +1715,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112234945</v>
+        <v>112234706</v>
       </c>
       <c r="B12" t="n">
-        <v>56430</v>
+        <v>89517</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1722,44 +1727,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kälshöjden (Kälshöjden), Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>607671</v>
+        <v>607769</v>
       </c>
       <c r="R12" t="n">
-        <v>7043913</v>
+        <v>7043830</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
